--- a/Testergebnisse/img_aug/Berechnung.xlsx
+++ b/Testergebnisse/img_aug/Berechnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbeitslaptop\OneDrive\Studium\Studium\6. Semester\Teamprojekt\Parkplatzerkennung\Testergebnisse\img_aug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{F21ED0B5-6BF0-4BBE-BBE7-4AB00C9797FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2911DFD1-AD23-4880-80C0-8068B061E5C2}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{F21ED0B5-6BF0-4BBE-BBE7-4AB00C9797FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9660E9C2-3643-45B9-85AF-3726B3029108}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="17940" yWindow="3705" windowWidth="21600" windowHeight="11385" xr2:uid="{02CC1280-8114-4A64-A421-A2031945AA79}"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{02CC1280-8114-4A64-A421-A2031945AA79}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Testnummer</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>horizontal_flip = True</t>
+  </si>
+  <si>
+    <t>vertical_flip = True</t>
+  </si>
+  <si>
+    <t>shear_range = 9</t>
   </si>
 </sst>
 </file>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AA9AAB-4E15-4520-94E0-3E8EB2BF4392}">
-  <dimension ref="C6:P43"/>
+  <dimension ref="C6:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="92" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="J5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +453,7 @@
     <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
@@ -468,8 +474,16 @@
         <v>7</v>
       </c>
       <c r="P6" s="3"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="U6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
@@ -500,8 +514,20 @@
       <c r="P9" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>1</v>
       </c>
@@ -532,8 +558,20 @@
       <c r="P10" s="1">
         <v>0.98939999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0.99050000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>2</v>
       </c>
@@ -564,8 +602,20 @@
       <c r="P11" s="1">
         <v>0.98529999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.99429999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>3</v>
       </c>
@@ -596,8 +646,20 @@
       <c r="P12" s="1">
         <v>0.98740000000000006</v>
       </c>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <v>3</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="U12" s="1">
+        <v>3</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.99329999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>4</v>
       </c>
@@ -628,8 +690,20 @@
       <c r="P13" s="1">
         <v>0.98819999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R13" s="1">
+        <v>4</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0.99029999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>5</v>
       </c>
@@ -660,8 +734,20 @@
       <c r="P14" s="1">
         <v>0.98540000000000005</v>
       </c>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R14" s="1">
+        <v>5</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="U14" s="1">
+        <v>5</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.98729999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>6</v>
       </c>
@@ -692,8 +778,20 @@
       <c r="P15" s="1">
         <v>0.98509999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R15" s="1">
+        <v>6</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="U15" s="1">
+        <v>6</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0.99229999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>7</v>
       </c>
@@ -724,8 +822,20 @@
       <c r="P16" s="1">
         <v>0.98829999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <v>7</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="U16" s="1">
+        <v>7</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>8</v>
       </c>
@@ -756,8 +866,20 @@
       <c r="P17" s="1">
         <v>0.98729999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <v>8</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="U17" s="1">
+        <v>8</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>9</v>
       </c>
@@ -788,8 +910,20 @@
       <c r="P18" s="1">
         <v>0.99099999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <v>9</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="U18" s="1">
+        <v>9</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0.99170000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>10</v>
       </c>
@@ -820,8 +954,20 @@
       <c r="P19" s="1">
         <v>0.99580000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <v>10</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="U19" s="1">
+        <v>10</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0.99050000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>11</v>
       </c>
@@ -848,8 +994,20 @@
       <c r="P20" s="1">
         <v>0.98609999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <v>11</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="U20" s="1">
+        <v>11</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0.99460000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>12</v>
       </c>
@@ -876,8 +1034,20 @@
       <c r="P21" s="1">
         <v>0.98950000000000005</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <v>12</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="U21" s="1">
+        <v>12</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0.99660000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>13</v>
       </c>
@@ -904,8 +1074,20 @@
       <c r="P22" s="1">
         <v>0.99009999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <v>13</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="U22" s="1">
+        <v>13</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.98960000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>14</v>
       </c>
@@ -932,8 +1114,20 @@
       <c r="P23" s="1">
         <v>0.98340000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R23" s="1">
+        <v>14</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="U23" s="1">
+        <v>14</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.98709999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>15</v>
       </c>
@@ -960,8 +1154,20 @@
       <c r="P24" s="1">
         <v>0.99380000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <v>15</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="U24" s="1">
+        <v>15</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0.99419999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>16</v>
       </c>
@@ -988,8 +1194,20 @@
       <c r="P25" s="1">
         <v>0.98480000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R25" s="1">
+        <v>16</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="U25" s="1">
+        <v>16</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.98740000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>17</v>
       </c>
@@ -1016,8 +1234,20 @@
       <c r="P26" s="1">
         <v>0.98709999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <v>17</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="U26" s="1">
+        <v>17</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.99480000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>18</v>
       </c>
@@ -1044,8 +1274,20 @@
       <c r="P27" s="1">
         <v>0.98819999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R27" s="1">
+        <v>18</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="U27" s="1">
+        <v>18</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.99229999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>19</v>
       </c>
@@ -1072,8 +1314,20 @@
       <c r="P28" s="1">
         <v>0.9839</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
+        <v>19</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="U28" s="1">
+        <v>19</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.99660000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>20</v>
       </c>
@@ -1100,8 +1354,20 @@
       <c r="P29" s="1">
         <v>0.99550000000000005</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R29" s="1">
+        <v>20</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0.9889</v>
+      </c>
+      <c r="U29" s="1">
+        <v>20</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.99180000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <v>21</v>
       </c>
@@ -1128,8 +1394,20 @@
       <c r="P30" s="1">
         <v>0.98450000000000004</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <v>21</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="U30" s="1">
+        <v>21</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0.99309999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>22</v>
       </c>
@@ -1156,8 +1434,20 @@
       <c r="P31" s="1">
         <v>0.98750000000000004</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R31" s="1">
+        <v>22</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="U31" s="1">
+        <v>22</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0.99129999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>23</v>
       </c>
@@ -1184,8 +1474,20 @@
       <c r="P32" s="1">
         <v>0.99060000000000004</v>
       </c>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <v>23</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="U32" s="1">
+        <v>23</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0.99280000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>24</v>
       </c>
@@ -1209,9 +1511,21 @@
       <c r="O33" s="1">
         <v>24</v>
       </c>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="1">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="R33" s="1">
+        <v>24</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="U33" s="1">
+        <v>24</v>
+      </c>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>25</v>
       </c>
@@ -1235,9 +1549,21 @@
       <c r="O34" s="1">
         <v>25</v>
       </c>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="1">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="R34" s="1">
+        <v>25</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="U34" s="1">
+        <v>25</v>
+      </c>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>26</v>
       </c>
@@ -1261,9 +1587,21 @@
       <c r="O35" s="1">
         <v>26</v>
       </c>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P35" s="1">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="R35" s="1">
+        <v>26</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="U35" s="1">
+        <v>26</v>
+      </c>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>27</v>
       </c>
@@ -1287,9 +1625,21 @@
       <c r="O36" s="1">
         <v>27</v>
       </c>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P36" s="1">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="R36" s="1">
+        <v>27</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="U36" s="1">
+        <v>27</v>
+      </c>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>28</v>
       </c>
@@ -1313,9 +1663,21 @@
       <c r="O37" s="1">
         <v>28</v>
       </c>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P37" s="1">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="R37" s="1">
+        <v>28</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="U37" s="1">
+        <v>28</v>
+      </c>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>29</v>
       </c>
@@ -1339,9 +1701,21 @@
       <c r="O38" s="1">
         <v>29</v>
       </c>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P38" s="1">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="R38" s="1">
+        <v>29</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0.9869</v>
+      </c>
+      <c r="U38" s="1">
+        <v>29</v>
+      </c>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <v>30</v>
       </c>
@@ -1365,9 +1739,21 @@
       <c r="O39" s="1">
         <v>30</v>
       </c>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="1">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="R39" s="1">
+        <v>30</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="U39" s="1">
+        <v>30</v>
+      </c>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>5</v>
       </c>
@@ -1401,11 +1787,27 @@
       </c>
       <c r="P43">
         <f>(SUM(P10:P39))/30</f>
-        <v>0.75760666666666654</v>
+        <v>0.98817333333333346</v>
+      </c>
+      <c r="R43" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43">
+        <f>(SUM(S10:S39))/30</f>
+        <v>0.98830666666666656</v>
+      </c>
+      <c r="U43" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43">
+        <f>(SUM(V10:V39))/30</f>
+        <v>0.76042333333333334</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="R6:S6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
